--- a/InstructionsAndConfig.xlsx
+++ b/InstructionsAndConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin Wang\Documents\UiPath\CanvasDataExtract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C49091D-9782-4CF4-8581-481829B08CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE39FBB3-09D7-4900-BA46-0828110BB3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="2310" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CB054E14-478A-49B5-9969-2425E960AC3E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Courses</t>
   </si>
@@ -52,13 +52,34 @@
     <t>MANENG204</t>
   </si>
   <si>
+    <t>ENGGEN303</t>
+  </si>
+  <si>
+    <t>ENGGEN403</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>C:\Users\Yin Wang\Documents\762test</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>output_file_path</t>
+  </si>
+  <si>
     <t>MANENG205</t>
   </si>
   <si>
-    <t>ENGGEN303</t>
-  </si>
-  <si>
-    <t>ENGGEN403</t>
+    <t>delete_files_after_execution</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>OK</t>
@@ -485,40 +506,40 @@
         <v>54553</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>54554</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>12345</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3242375</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -532,14 +553,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8458A5DB-F915-427D-BE37-5920F6181FAB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InstructionsAndConfig.xlsx
+++ b/InstructionsAndConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin Wang\Documents\UiPath\CanvasDataExtract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE39FBB3-09D7-4900-BA46-0828110BB3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10EA9E3-EF0B-4D3B-B66E-E58FE8C0954F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2310" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CB054E14-478A-49B5-9969-2425E960AC3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CB054E14-478A-49B5-9969-2425E960AC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Courses</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Config</t>
   </si>
   <si>
-    <t>C:\Users\Yin Wang\Documents\762test</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -77,18 +74,6 @@
   </si>
   <si>
     <t>delete_files_after_execution</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Access Denied</t>
-  </si>
-  <si>
-    <t>Does not exist</t>
   </si>
 </sst>
 </file>
@@ -455,7 +440,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A938A46-F965-4161-B7BB-A0E196F74F76}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,19 +490,13 @@
       <c r="B3">
         <v>54553</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>54554</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -525,10 +504,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12345</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
+        <v>54544</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,10 +512,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3242375</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>543554</v>
       </c>
     </row>
   </sheetData>
@@ -555,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8458A5DB-F915-427D-BE37-5920F6181FAB}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,26 +545,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/InstructionsAndConfig.xlsx
+++ b/InstructionsAndConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin Wang\Documents\UiPath\CanvasDataExtract\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\Desktop\Uni\SOFTENG762\softeng762\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE39FBB3-09D7-4900-BA46-0828110BB3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA089C-29F8-4E1A-AF50-5AFD5B25CA18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2310" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{CB054E14-478A-49B5-9969-2425E960AC3E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CB054E14-478A-49B5-9969-2425E960AC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Courses</t>
   </si>
@@ -82,20 +82,116 @@
     <t>no</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Access Denied</t>
-  </si>
-  <si>
-    <t>Does not exist</t>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Step 1:</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Configurations</t>
+  </si>
+  <si>
+    <t>Download &amp; install UiPath Studio on your PC if you have not done so already from https://www.uipath.com/</t>
+  </si>
+  <si>
+    <t>Step 2:</t>
+  </si>
+  <si>
+    <t>Step 3:</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Ensure that you have downloaded the "UiPath Web Automation" chrome extension from https://chrome.google.com/webstore/detail/uipath-web-automation/dkgencfabioofgdmhhjljpkbbchbikbh</t>
+  </si>
+  <si>
+    <t>Enter all the course codes and their respective course ID's that you want the bot to process.
+Note: Ensure that the "status" column is empty and that there are no empty lines in between entries.</t>
+  </si>
+  <si>
+    <t>Step 4:</t>
+  </si>
+  <si>
+    <t>Navigate to the "Config" tab at the bottom of this spreadsheet.</t>
+  </si>
+  <si>
+    <t>Navigate to the "Courses" tab at the bottom of this spreadsheet.</t>
+  </si>
+  <si>
+    <t>Ensure that you have downloaded the source files of the bot onto your PC.</t>
+  </si>
+  <si>
+    <t>Ensure that you have google chrome installed on your PC.</t>
+  </si>
+  <si>
+    <t>Step 5:</t>
+  </si>
+  <si>
+    <t>Choose whether or not you would like intermediary files to be automatically deleted after execution in "delete_files_after_execution". Enter either "yes" or "no" (lowercase only).</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Step 6:</t>
+  </si>
+  <si>
+    <t>Save your changes</t>
+  </si>
+  <si>
+    <t>Launch UiPath Studio.</t>
+  </si>
+  <si>
+    <t>Click "Open a local project".</t>
+  </si>
+  <si>
+    <t>Navigate to the bot's source file and select the "project.json" file.</t>
+  </si>
+  <si>
+    <t>Click "Open".</t>
+  </si>
+  <si>
+    <t>Click the dropdown arrow under the "Debug" button.</t>
+  </si>
+  <si>
+    <t>Click "Run".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 5: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 7:  </t>
+  </si>
+  <si>
+    <t>Login to Canvas Dashboard</t>
+  </si>
+  <si>
+    <t>Enter the filepath that you want the output file to be in "output_file_path".
+Note: Ensure that this filepath is empty (with the exception of a file named "EngagementAnalyticLite.xlsm") and make your default chrome downloads folder to this same filepath.</t>
+  </si>
+  <si>
+    <t>Step 8:</t>
+  </si>
+  <si>
+    <t>If there are errors, they will be reflected in the "status" column in the "Courses" tab (see image above).</t>
+  </si>
+  <si>
+    <t>Step 9:</t>
+  </si>
+  <si>
+    <t>To retry the failed courses after fixing the errors, enter "yes" in the popup dialogue box then click "OK". Otherwise, enter "no" then click OK.
+Note: After editing the configuration spreadsheet when fixing errors, ensure you close the excel application before clicking "OK" in the dialogue box.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +202,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,9 +251,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -153,6 +293,404 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1744980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0B3E58-BB93-48BF-9672-7362CD752D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="636270" y="2247899"/>
+          <a:ext cx="1748790" cy="264231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>636271</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2069859</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F890A62-7060-4F98-8E94-E868940E6012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="636271" y="3375660"/>
+          <a:ext cx="2073668" cy="994410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38858E2A-38C7-4EBE-B0B7-9FE8CAC5B713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="643890" y="5189220"/>
+          <a:ext cx="1672590" cy="275485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3597611</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3FC5AD-7596-48D2-873D-C9511D6345AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="636270" y="6480810"/>
+          <a:ext cx="3601421" cy="605790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4732032</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04E195F-115C-4E08-92AD-94603400A380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="8759190"/>
+          <a:ext cx="4724412" cy="2175510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7250430</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>173074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029E899B-02FE-4EA0-B2CC-161DDBF06B71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="11871960"/>
+          <a:ext cx="7242810" cy="3819244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7246980</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E954DDB-921E-4F19-B36C-4CBDBB991D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="651510" y="16626840"/>
+          <a:ext cx="7235550" cy="3288030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,15 +990,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD287F0-F28F-4431-B78C-B9E034EDD7B0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="4"/>
+    <col min="2" max="2" width="156.1015625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.83984375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23.1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -468,26 +1273,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A938A46-F965-4161-B7BB-A0E196F74F76}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1015625" customWidth="1"/>
+    <col min="4" max="5" width="9.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,48 +1303,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>54553</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <v>54554</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>12345</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>3242375</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -556,21 +1349,21 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -578,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -586,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
